--- a/Bill Of Materials/V-King CoreXY - Part Order List.xlsx
+++ b/Bill Of Materials/V-King CoreXY - Part Order List.xlsx
@@ -1,33 +1,75 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roy\OneDrive\Document Library\GitHub\V-King\Bill Of Materials\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinroger/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="803" documentId="8_{BDB81E76-0EE6-4FBB-BB57-40CE6024A00A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{7888515F-5452-4EA5-993D-1F679207523A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{340BAF90-4095-2B42-AEB0-A711F7DE05FD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40416" yWindow="0" windowWidth="28800" windowHeight="12432" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40000" yWindow="460" windowWidth="28800" windowHeight="25260" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM Overview" sheetId="7" r:id="rId1"/>
     <sheet name="Complete Part List" sheetId="10" r:id="rId2"/>
-    <sheet name="Fasteners List" sheetId="4" r:id="rId3"/>
-    <sheet name="Tools" sheetId="11" r:id="rId4"/>
+    <sheet name="500mm version" sheetId="12" r:id="rId3"/>
+    <sheet name="Original version" sheetId="13" r:id="rId4"/>
+    <sheet name="Fasteners List" sheetId="4" r:id="rId5"/>
+    <sheet name="Tools" sheetId="11" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'500mm version'!$A$1:$D$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Original version'!$A$1:$D$12</definedName>
+  </definedNames>
+  <calcPr calcId="162913"/>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Martin ROGER</author>
+  </authors>
+  <commentList>
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{1142742C-FA69-104A-B8F0-28B165A3547A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Martin ROGER:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Might need 4 of these to be 2040 actually
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
@@ -39,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="157">
   <si>
     <t>Part Name</t>
   </si>
@@ -444,18 +486,85 @@
   </si>
   <si>
     <t>Crimping Tool</t>
+  </si>
+  <si>
+    <t>Frame</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>Part</t>
+  </si>
+  <si>
+    <t>X V-slot 2020 extrusions - 660mm</t>
+  </si>
+  <si>
+    <t>Qty</t>
+  </si>
+  <si>
+    <t>Y V-slot 2020 extrusions - 620mm</t>
+  </si>
+  <si>
+    <t>Z V-slot 2020 extrusions - 670mm</t>
+  </si>
+  <si>
+    <t>X V-slot 2020 gantry extrusion - 640mm</t>
+  </si>
+  <si>
+    <t>2020 corner cube connector</t>
+  </si>
+  <si>
+    <t>Complete cost</t>
+  </si>
+  <si>
+    <t>2028 Corner bracket</t>
+  </si>
+  <si>
+    <t>Solid wheel kits</t>
+  </si>
+  <si>
+    <t>M3 Flat Washer</t>
+  </si>
+  <si>
+    <t>M5x8 CNSK Bolt</t>
+  </si>
+  <si>
+    <t>V-wheel 5*8*1mm precision shim</t>
+  </si>
+  <si>
+    <t>M3 hext nut</t>
+  </si>
+  <si>
+    <t>M3x10mm DIN912 Socket Cap head</t>
+  </si>
+  <si>
+    <t>M3x25mm DIN912 Socket Cap head</t>
+  </si>
+  <si>
+    <t>X V-slot 2020 extrusions - 500mm</t>
+  </si>
+  <si>
+    <t>Y V-slot 2020 extrusions - 500mm</t>
+  </si>
+  <si>
+    <t>Z V-slot 2020 extrusions - 500mm</t>
+  </si>
+  <si>
+    <t>X V-slot 2020 gantry extrusion - 480mm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="[$EUR]\ #,##0.0"/>
     <numFmt numFmtId="165" formatCode="_([$EUR]\ * #,##0_);_([$EUR]\ * \(#,##0\);_([$EUR]\ * &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="[$EUR]\ #,##0.00"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0.00\ [$€-40C]_-;\-* #,##0.00\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -544,6 +653,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -615,7 +744,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -669,9 +798,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1186,7 +1321,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1512,13 +1647,13 @@
       <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="48.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.33203125" style="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="25.2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" ht="25">
       <c r="A1" s="38" t="s">
         <v>73</v>
       </c>
@@ -1532,7 +1667,7 @@
       <c r="I1" s="38"/>
       <c r="J1" s="38"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10">
       <c r="A2" s="39" t="s">
         <v>133</v>
       </c>
@@ -1546,7 +1681,7 @@
       <c r="I2" s="39"/>
       <c r="J2" s="39"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10">
       <c r="A3" s="40"/>
       <c r="B3" s="40"/>
       <c r="C3" s="40"/>
@@ -1558,14 +1693,14 @@
       <c r="I3" s="40"/>
       <c r="J3" s="40"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10">
       <c r="A4" s="6"/>
       <c r="B4" s="26"/>
       <c r="C4" s="26"/>
       <c r="D4" s="26"/>
       <c r="E4" s="26"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10">
       <c r="A5" s="4" t="s">
         <v>74</v>
       </c>
@@ -1574,7 +1709,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10">
       <c r="A6" s="4" t="s">
         <v>71</v>
       </c>
@@ -1583,7 +1718,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10">
       <c r="A7" s="4" t="s">
         <v>72</v>
       </c>
@@ -1592,7 +1727,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10">
       <c r="A8" s="3" t="s">
         <v>127</v>
       </c>
@@ -1600,7 +1735,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10">
       <c r="A9" s="3" t="s">
         <v>128</v>
       </c>
@@ -1608,11 +1743,11 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10">
       <c r="A10" s="3"/>
       <c r="B10" s="25"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10">
       <c r="A11" s="8" t="s">
         <v>70</v>
       </c>
@@ -1621,12 +1756,12 @@
         <v>820</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10">
       <c r="A13" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="28.8" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:10" ht="25">
       <c r="A14" s="23" t="s">
         <v>52</v>
       </c>
@@ -1652,26 +1787,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0919D6B9-0972-4CD2-93D2-3239C5F0D359}">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.109375" customWidth="1"/>
+    <col min="1" max="1" width="26.1640625" customWidth="1"/>
     <col min="2" max="2" width="26.6640625" customWidth="1"/>
     <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.109375" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" customWidth="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.600000000000001" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" ht="19">
       <c r="A1" s="5"/>
       <c r="B1" s="34" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="B3" s="33" t="s">
         <v>129</v>
       </c>
@@ -1681,7 +1816,7 @@
       <c r="D3" s="32"/>
       <c r="E3" s="32"/>
     </row>
-    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:5" ht="25">
       <c r="A5" s="30" t="s">
         <v>50</v>
       </c>
@@ -1692,7 +1827,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="A6" s="14" t="s">
         <v>0</v>
       </c>
@@ -1709,7 +1844,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
         <v>92</v>
       </c>
@@ -1718,7 +1853,7 @@
       </c>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5">
       <c r="A8" s="13" t="s">
         <v>2</v>
       </c>
@@ -1736,7 +1871,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" s="13" t="s">
         <v>15</v>
       </c>
@@ -1754,7 +1889,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5">
       <c r="A10" s="13" t="s">
         <v>3</v>
       </c>
@@ -1772,7 +1907,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5">
       <c r="A11" s="13" t="s">
         <v>67</v>
       </c>
@@ -1786,7 +1921,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5">
       <c r="A12" s="2" t="s">
         <v>21</v>
       </c>
@@ -1794,7 +1929,7 @@
       <c r="D12" s="16"/>
       <c r="E12" s="16"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5">
       <c r="A13" s="19" t="s">
         <v>89</v>
       </c>
@@ -1812,7 +1947,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5">
       <c r="A14" s="8" t="s">
         <v>106</v>
       </c>
@@ -1822,11 +1957,11 @@
         <v>230</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5">
       <c r="A15" s="8"/>
       <c r="E15" s="21"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5">
       <c r="A16" s="14" t="s">
         <v>119</v>
       </c>
@@ -1841,7 +1976,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5">
       <c r="A17" s="4" t="s">
         <v>120</v>
       </c>
@@ -1858,7 +1993,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5">
       <c r="A18" s="4" t="s">
         <v>101</v>
       </c>
@@ -1875,7 +2010,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5">
       <c r="A19" s="4" t="s">
         <v>124</v>
       </c>
@@ -1892,7 +2027,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5">
       <c r="A20" s="4" t="s">
         <v>115</v>
       </c>
@@ -1909,7 +2044,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5">
       <c r="A21" s="4" t="s">
         <v>103</v>
       </c>
@@ -1926,7 +2061,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5">
       <c r="A22" s="4" t="s">
         <v>102</v>
       </c>
@@ -1943,7 +2078,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5">
       <c r="A23" s="4" t="s">
         <v>99</v>
       </c>
@@ -1960,7 +2095,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5">
       <c r="A24" s="4" t="s">
         <v>95</v>
       </c>
@@ -1977,7 +2112,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5">
       <c r="A25" s="4" t="s">
         <v>61</v>
       </c>
@@ -1994,7 +2129,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5">
       <c r="A26" s="4" t="s">
         <v>87</v>
       </c>
@@ -2011,7 +2146,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5">
       <c r="A27" s="19" t="s">
         <v>62</v>
       </c>
@@ -2028,7 +2163,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5">
       <c r="A28" s="19" t="s">
         <v>63</v>
       </c>
@@ -2045,7 +2180,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5">
       <c r="A29" s="4" t="s">
         <v>100</v>
       </c>
@@ -2062,7 +2197,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5">
       <c r="A30" s="17" t="s">
         <v>96</v>
       </c>
@@ -2079,7 +2214,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5">
       <c r="A31" s="4" t="s">
         <v>79</v>
       </c>
@@ -2096,7 +2231,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5">
       <c r="A32" s="4" t="s">
         <v>98</v>
       </c>
@@ -2113,7 +2248,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5">
       <c r="A33" s="4" t="s">
         <v>97</v>
       </c>
@@ -2130,7 +2265,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5">
       <c r="A34" s="4" t="s">
         <v>53</v>
       </c>
@@ -2147,7 +2282,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5">
       <c r="A35" s="13" t="s">
         <v>94</v>
       </c>
@@ -2164,7 +2299,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5">
       <c r="A36" s="4" t="s">
         <v>41</v>
       </c>
@@ -2181,7 +2316,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5">
       <c r="A37" s="4" t="s">
         <v>56</v>
       </c>
@@ -2198,7 +2333,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5">
       <c r="A38" s="4" t="s">
         <v>44</v>
       </c>
@@ -2215,7 +2350,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5">
       <c r="A39" s="8" t="s">
         <v>75</v>
       </c>
@@ -2227,7 +2362,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5">
       <c r="A41" s="14" t="s">
         <v>130</v>
       </c>
@@ -2240,7 +2375,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5">
       <c r="A42" s="4" t="s">
         <v>121</v>
       </c>
@@ -2250,7 +2385,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A17:E38">
+  <sortState ref="A17:E38">
     <sortCondition ref="A17:A38"/>
   </sortState>
   <hyperlinks>
@@ -2296,12 +2431,441 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B2328F7-E438-5F41-897E-AC4575EA5265}">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="33.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2">
+        <v>6</v>
+      </c>
+      <c r="D2" s="41"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+      <c r="D3" s="41"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4" s="41"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="41"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C6">
+        <v>8</v>
+      </c>
+      <c r="D6" s="41">
+        <v>7.86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>135</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C7">
+        <v>20</v>
+      </c>
+      <c r="D7" s="41">
+        <v>6.17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C8">
+        <v>22</v>
+      </c>
+      <c r="D8" s="41">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C9">
+        <v>25</v>
+      </c>
+      <c r="D9" s="41">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C10">
+        <v>25</v>
+      </c>
+      <c r="D10" s="41">
+        <v>6.34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C11">
+        <v>25</v>
+      </c>
+      <c r="D11" s="41">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C12">
+        <v>25</v>
+      </c>
+      <c r="D12" s="41">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="B13" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C13">
+        <v>25</v>
+      </c>
+      <c r="D13" s="41">
+        <v>3.02</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="B14" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C14">
+        <v>25</v>
+      </c>
+      <c r="D14" s="41">
+        <v>5.33</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:D12" xr:uid="{269568CE-4F20-9241-9564-25609FE5FE55}"/>
+  <hyperlinks>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{871B70C6-86C7-FB49-B953-F11DA85EC69D}"/>
+    <hyperlink ref="B7" r:id="rId2" xr:uid="{8AF0AA4E-7EA2-0341-B03A-93641C9A9076}"/>
+    <hyperlink ref="B8" r:id="rId3" xr:uid="{422A4FAA-034E-E94F-BC0E-C9367EDD11E9}"/>
+    <hyperlink ref="B9" r:id="rId4" xr:uid="{65C4B012-A5EC-8742-8A1B-26C9B90A4877}"/>
+    <hyperlink ref="B11" r:id="rId5" xr:uid="{2A5D7748-1148-3540-B335-AAA8EC394DEA}"/>
+    <hyperlink ref="B10" r:id="rId6" xr:uid="{07BA0DDB-849D-4447-AD44-75A8DD6D5D4B}"/>
+    <hyperlink ref="B12" r:id="rId7" xr:uid="{CDCCA0DE-FB4C-EB40-9A67-3680D9B76CCA}"/>
+    <hyperlink ref="B13" r:id="rId8" xr:uid="{EA180514-D145-5445-8E57-46C8D878A253}"/>
+    <hyperlink ref="B14" r:id="rId9" xr:uid="{84B87B63-381D-314A-BE17-0EF8C3BCE59D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId10"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0026023-5F58-1845-AB49-72BA1DC16D4F}">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="33.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C2">
+        <v>6</v>
+      </c>
+      <c r="D2" s="41"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+      <c r="D3" s="41"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4" s="41"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="41"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C6">
+        <v>8</v>
+      </c>
+      <c r="D6" s="41">
+        <v>7.86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>135</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C7">
+        <v>20</v>
+      </c>
+      <c r="D7" s="41">
+        <v>6.17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C8">
+        <v>22</v>
+      </c>
+      <c r="D8" s="41">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C9">
+        <v>25</v>
+      </c>
+      <c r="D9" s="41">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C10">
+        <v>25</v>
+      </c>
+      <c r="D10" s="41">
+        <v>6.34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C11">
+        <v>25</v>
+      </c>
+      <c r="D11" s="41">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C12">
+        <v>25</v>
+      </c>
+      <c r="D12" s="41">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="B13" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C13">
+        <v>25</v>
+      </c>
+      <c r="D13" s="41">
+        <v>3.02</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="B14" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C14">
+        <v>25</v>
+      </c>
+      <c r="D14" s="41">
+        <v>5.33</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:D12" xr:uid="{269568CE-4F20-9241-9564-25609FE5FE55}"/>
+  <hyperlinks>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{72CC3FB5-E930-C24E-9956-14F2C20D2E5C}"/>
+    <hyperlink ref="B7" r:id="rId2" xr:uid="{D26EA528-76E7-E248-9B68-B6A045043FAE}"/>
+    <hyperlink ref="B8" r:id="rId3" xr:uid="{90E5B7D3-0DE0-674B-8846-8DD018CC0B96}"/>
+    <hyperlink ref="B9" r:id="rId4" xr:uid="{1FE5D950-96BE-C44B-B322-CE5DE720FDB3}"/>
+    <hyperlink ref="B11" r:id="rId5" xr:uid="{DE31638A-FD70-554C-B5EC-D5F836D91588}"/>
+    <hyperlink ref="B10" r:id="rId6" xr:uid="{631831AF-9B91-874B-9A18-32A420E1BEDC}"/>
+    <hyperlink ref="B12" r:id="rId7" xr:uid="{EFC87850-E60D-7C4A-AA1C-0DD5D2D5DF3B}"/>
+    <hyperlink ref="B13" r:id="rId8" xr:uid="{5BB96CFA-3761-064D-A3A7-93EE4F27FCB2}"/>
+    <hyperlink ref="B14" r:id="rId9" xr:uid="{ACDA9D6D-5AE5-3549-AC8F-C33F354FF178}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A389EA4-5A5F-4A9C-B048-2EB9BC969CA3}">
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34" customWidth="1"/>
@@ -2309,22 +2873,22 @@
     <col min="4" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="B1" s="8" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="B5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:5" ht="25">
       <c r="B6" s="7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7" s="14" t="s">
         <v>30</v>
       </c>
@@ -2341,79 +2905,79 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
+    <row r="8" spans="1:5">
+      <c r="A8" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="43">
         <v>25</v>
       </c>
-      <c r="D8" s="28">
+      <c r="D8" s="44">
         <v>0.1</v>
       </c>
-      <c r="E8" s="27">
+      <c r="E8" s="45">
         <f t="shared" ref="E8:E31" si="0">D8*C8</f>
         <v>2.5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="s">
+    <row r="9" spans="1:5">
+      <c r="A9" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="46">
         <v>25</v>
       </c>
-      <c r="D9" s="28">
+      <c r="D9" s="44">
         <v>0.1</v>
       </c>
-      <c r="E9" s="27">
+      <c r="E9" s="45">
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
+    <row r="10" spans="1:5">
+      <c r="A10" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="43">
         <v>25</v>
       </c>
-      <c r="D10" s="28">
+      <c r="D10" s="44">
         <v>0.1</v>
       </c>
-      <c r="E10" s="27">
+      <c r="E10" s="45">
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="10" t="s">
+    <row r="11" spans="1:5">
+      <c r="A11" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="46">
         <v>10</v>
       </c>
-      <c r="D11" s="28">
+      <c r="D11" s="44">
         <v>0.1</v>
       </c>
-      <c r="E11" s="27">
+      <c r="E11" s="45">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5">
       <c r="A12" s="10" t="s">
         <v>10</v>
       </c>
@@ -2431,7 +2995,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5">
       <c r="A13" s="10" t="s">
         <v>39</v>
       </c>
@@ -2449,7 +3013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5">
       <c r="A14" s="10" t="s">
         <v>110</v>
       </c>
@@ -2467,7 +3031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5">
       <c r="A15" s="10" t="s">
         <v>14</v>
       </c>
@@ -2485,7 +3049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5">
       <c r="A16" s="10" t="s">
         <v>18</v>
       </c>
@@ -2503,7 +3067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5">
       <c r="A17" s="10" t="s">
         <v>17</v>
       </c>
@@ -2521,7 +3085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5">
       <c r="A18" s="10" t="s">
         <v>108</v>
       </c>
@@ -2539,7 +3103,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5">
       <c r="A19" s="10" t="s">
         <v>111</v>
       </c>
@@ -2557,7 +3121,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5">
       <c r="A20" s="10" t="s">
         <v>112</v>
       </c>
@@ -2575,7 +3139,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5">
       <c r="A21" s="29" t="s">
         <v>31</v>
       </c>
@@ -2593,7 +3157,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5">
       <c r="A22" s="29" t="s">
         <v>4</v>
       </c>
@@ -2611,7 +3175,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5">
       <c r="A23" s="10" t="s">
         <v>6</v>
       </c>
@@ -2629,7 +3193,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5">
       <c r="A24" s="10" t="s">
         <v>7</v>
       </c>
@@ -2647,7 +3211,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5">
       <c r="A25" s="10" t="s">
         <v>26</v>
       </c>
@@ -2665,7 +3229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5">
       <c r="A26" s="10" t="s">
         <v>27</v>
       </c>
@@ -2683,7 +3247,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5">
       <c r="A27" s="10" t="s">
         <v>19</v>
       </c>
@@ -2701,7 +3265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5">
       <c r="A28" s="10" t="s">
         <v>13</v>
       </c>
@@ -2719,7 +3283,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5">
       <c r="A29" s="10" t="s">
         <v>11</v>
       </c>
@@ -2737,7 +3301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5">
       <c r="A30" s="10" t="s">
         <v>29</v>
       </c>
@@ -2755,7 +3319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5">
       <c r="A31" s="29" t="s">
         <v>24</v>
       </c>
@@ -2773,7 +3337,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5">
       <c r="A32" s="8" t="s">
         <v>68</v>
       </c>
@@ -2782,7 +3346,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5">
       <c r="A34" s="14" t="s">
         <v>114</v>
       </c>
@@ -2800,7 +3364,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A8:E31">
+  <sortState ref="A8:E31">
     <sortCondition ref="A8:A31"/>
   </sortState>
   <hyperlinks>
@@ -2814,23 +3378,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B664E5EE-35F8-47D7-9084-DF49A062745E}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>134</v>
       </c>

--- a/Bill Of Materials/V-King CoreXY - Part Order List.xlsx
+++ b/Bill Of Materials/V-King CoreXY - Part Order List.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinroger/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinroger/Documents/GitHub/V-King/Bill Of Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{340BAF90-4095-2B42-AEB0-A711F7DE05FD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B87E9185-FBA7-7E41-9DE4-1A71971F045E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40000" yWindow="460" windowWidth="28800" windowHeight="25260" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40000" yWindow="460" windowWidth="28800" windowHeight="25260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM Overview" sheetId="7" r:id="rId1"/>
@@ -22,7 +22,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'500mm version'!$A$1:$D$12</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Original version'!$A$1:$D$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Original version'!$A$2:$E$33</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="176">
   <si>
     <t>Part Name</t>
   </si>
@@ -552,6 +552,63 @@
   </si>
   <si>
     <t>X V-slot 2020 gantry extrusion - 480mm</t>
+  </si>
+  <si>
+    <t>M3x8mm DIN912 Socket Cap head</t>
+  </si>
+  <si>
+    <t>M4 Flat Washer</t>
+  </si>
+  <si>
+    <t>M4 Hex Nut</t>
+  </si>
+  <si>
+    <t>M4 Lock nut</t>
+  </si>
+  <si>
+    <t>M4x16mm DIN912 Socket Cap head</t>
+  </si>
+  <si>
+    <t>M4x20mm DIN912 Socket Cap head</t>
+  </si>
+  <si>
+    <t>M5 Lock nut</t>
+  </si>
+  <si>
+    <t>M5 Hammer T-nut</t>
+  </si>
+  <si>
+    <t>M5 T-nut square 20sm5</t>
+  </si>
+  <si>
+    <t>M5 Flat Washer</t>
+  </si>
+  <si>
+    <t>M5x10mm DIN912 Socket Cap head</t>
+  </si>
+  <si>
+    <t>M5x12mm DIN912 Socket Cap head</t>
+  </si>
+  <si>
+    <t>M5x20 hex head</t>
+  </si>
+  <si>
+    <t>M5x35 hex head</t>
+  </si>
+  <si>
+    <t>M5x25 DIN912 Socket Cap head</t>
+  </si>
+  <si>
+    <t>M5x30 DIN912 Socket Cap head</t>
+  </si>
+  <si>
+    <t>M5x35 DIN912 Socket Cap head</t>
+  </si>
+  <si>
+    <t>Carted</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
@@ -564,7 +621,7 @@
     <numFmt numFmtId="166" formatCode="[$EUR]\ #,##0.00"/>
     <numFmt numFmtId="167" formatCode="_-* #,##0.00\ [$€-40C]_-;\-* #,##0.00\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -673,6 +730,14 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -744,7 +809,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -789,6 +854,12 @@
     <xf numFmtId="4" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -798,12 +869,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -1654,44 +1720,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="45" t="s">
         <v>133</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="40"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
+      <c r="A3" s="46"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="6"/>
@@ -1787,8 +1853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0919D6B9-0972-4CD2-93D2-3239C5F0D359}">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -2434,7 +2500,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B2328F7-E438-5F41-897E-AC4575EA5265}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
@@ -2468,7 +2534,7 @@
       <c r="C2">
         <v>6</v>
       </c>
-      <c r="D2" s="41"/>
+      <c r="D2" s="38"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
@@ -2480,7 +2546,7 @@
       <c r="C3">
         <v>6</v>
       </c>
-      <c r="D3" s="41"/>
+      <c r="D3" s="38"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
@@ -2492,7 +2558,7 @@
       <c r="C4">
         <v>4</v>
       </c>
-      <c r="D4" s="41"/>
+      <c r="D4" s="38"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
@@ -2504,7 +2570,7 @@
       <c r="C5">
         <v>1</v>
       </c>
-      <c r="D5" s="41"/>
+      <c r="D5" s="38"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
@@ -2516,7 +2582,7 @@
       <c r="C6">
         <v>8</v>
       </c>
-      <c r="D6" s="41">
+      <c r="D6" s="38">
         <v>7.86</v>
       </c>
     </row>
@@ -2530,7 +2596,7 @@
       <c r="C7">
         <v>20</v>
       </c>
-      <c r="D7" s="41">
+      <c r="D7" s="38">
         <v>6.17</v>
       </c>
     </row>
@@ -2544,7 +2610,7 @@
       <c r="C8">
         <v>22</v>
       </c>
-      <c r="D8" s="41">
+      <c r="D8" s="38">
         <v>30</v>
       </c>
     </row>
@@ -2558,7 +2624,7 @@
       <c r="C9">
         <v>25</v>
       </c>
-      <c r="D9" s="41">
+      <c r="D9" s="38">
         <v>1.02</v>
       </c>
     </row>
@@ -2572,7 +2638,7 @@
       <c r="C10">
         <v>25</v>
       </c>
-      <c r="D10" s="41">
+      <c r="D10" s="38">
         <v>6.34</v>
       </c>
     </row>
@@ -2586,7 +2652,7 @@
       <c r="C11">
         <v>25</v>
       </c>
-      <c r="D11" s="41">
+      <c r="D11" s="38">
         <v>1.6</v>
       </c>
     </row>
@@ -2600,7 +2666,7 @@
       <c r="C12">
         <v>25</v>
       </c>
-      <c r="D12" s="41">
+      <c r="D12" s="38">
         <v>1.06</v>
       </c>
     </row>
@@ -2611,7 +2677,7 @@
       <c r="C13">
         <v>25</v>
       </c>
-      <c r="D13" s="41">
+      <c r="D13" s="38">
         <v>3.02</v>
       </c>
     </row>
@@ -2622,7 +2688,7 @@
       <c r="C14">
         <v>25</v>
       </c>
-      <c r="D14" s="41">
+      <c r="D14" s="38">
         <v>5.33</v>
       </c>
     </row>
@@ -2646,10 +2712,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0026023-5F58-1845-AB49-72BA1DC16D4F}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2658,200 +2724,866 @@
     <col min="4" max="4" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5">
+      <c r="D1" s="38">
+        <f>SUM(D3:D60)</f>
+        <v>366.08999999999986</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
         <v>136</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>137</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>139</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C2">
-        <v>6</v>
-      </c>
-      <c r="D2" s="41"/>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>135</v>
       </c>
       <c r="B3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C3">
         <v>6</v>
       </c>
-      <c r="D3" s="41"/>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="D3" s="38"/>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>135</v>
       </c>
       <c r="B4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C4">
-        <v>4</v>
-      </c>
-      <c r="D4" s="41"/>
-    </row>
-    <row r="5" spans="1:4">
+        <v>6</v>
+      </c>
+      <c r="D4" s="38"/>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>135</v>
       </c>
       <c r="B5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" s="41"/>
-    </row>
-    <row r="6" spans="1:4">
+        <v>4</v>
+      </c>
+      <c r="D5" s="38"/>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>135</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>143</v>
+      <c r="B6" t="s">
+        <v>156</v>
       </c>
       <c r="C6">
-        <v>8</v>
-      </c>
-      <c r="D6" s="41">
-        <v>7.86</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>1</v>
+      </c>
+      <c r="D6" s="38"/>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>135</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C7">
-        <v>20</v>
-      </c>
-      <c r="D7" s="41">
-        <v>6.17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>8</v>
+      </c>
+      <c r="D7" s="38">
+        <v>7.86</v>
+      </c>
+      <c r="E7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>135</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C8">
+        <v>20</v>
+      </c>
+      <c r="D8" s="38">
+        <v>6.17</v>
+      </c>
+      <c r="E8" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>135</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>22</v>
       </c>
-      <c r="D8" s="41">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="C9">
-        <v>25</v>
-      </c>
-      <c r="D9" s="41">
-        <v>1.02</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="D9" s="38">
+        <v>26.29</v>
+      </c>
+      <c r="E9" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C10">
         <v>25</v>
       </c>
-      <c r="D10" s="41">
-        <v>6.34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="D10" s="38">
+        <v>1.02</v>
+      </c>
+      <c r="E10" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>30</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C11">
         <v>25</v>
       </c>
-      <c r="D11" s="41">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="D11" s="38">
+        <v>6.34</v>
+      </c>
+      <c r="E11" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C12">
+        <v>100</v>
+      </c>
+      <c r="D12" s="38">
+        <v>3.2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>150</v>
-      </c>
-      <c r="C12">
-        <v>25</v>
-      </c>
-      <c r="D12" s="41">
-        <v>1.06</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="B13" s="4" t="s">
-        <v>151</v>
       </c>
       <c r="C13">
         <v>25</v>
       </c>
-      <c r="D13" s="41">
-        <v>3.02</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="D13" s="38">
+        <v>1.06</v>
+      </c>
+      <c r="E13" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
       <c r="B14" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C14">
         <v>25</v>
       </c>
-      <c r="D14" s="41">
+      <c r="D14" s="38">
+        <v>3.02</v>
+      </c>
+      <c r="E14" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C15">
+        <v>25</v>
+      </c>
+      <c r="D15" s="38">
         <v>5.33</v>
       </c>
+      <c r="E15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C16">
+        <v>25</v>
+      </c>
+      <c r="D16" s="38">
+        <v>4.49</v>
+      </c>
+      <c r="E16" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C17">
+        <v>25</v>
+      </c>
+      <c r="D17" s="38">
+        <v>1.63</v>
+      </c>
+      <c r="E17" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C18">
+        <v>25</v>
+      </c>
+      <c r="D18" s="38">
+        <v>1.63</v>
+      </c>
+      <c r="E18" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C19">
+        <v>25</v>
+      </c>
+      <c r="D19" s="38">
+        <v>1.68</v>
+      </c>
+      <c r="E19" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C20">
+        <v>25</v>
+      </c>
+      <c r="D20" s="38">
+        <v>6.99</v>
+      </c>
+      <c r="E20" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C21">
+        <v>25</v>
+      </c>
+      <c r="D21" s="38">
+        <v>7.5</v>
+      </c>
+      <c r="E21" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C22">
+        <v>50</v>
+      </c>
+      <c r="D22" s="38">
+        <v>1.39</v>
+      </c>
+      <c r="E22" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C23">
+        <v>50</v>
+      </c>
+      <c r="D23" s="38">
+        <v>2.57</v>
+      </c>
+      <c r="E23" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C24">
+        <v>50</v>
+      </c>
+      <c r="D24" s="38">
+        <v>5.78</v>
+      </c>
+      <c r="E24" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C25">
+        <v>100</v>
+      </c>
+      <c r="D25" s="38">
+        <v>7.4</v>
+      </c>
+      <c r="E25" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C26">
+        <v>100</v>
+      </c>
+      <c r="D26" s="38">
+        <v>1.75</v>
+      </c>
+      <c r="E26" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C27">
+        <v>100</v>
+      </c>
+      <c r="D27" s="38">
+        <v>9.68</v>
+      </c>
+      <c r="E27" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C28">
+        <v>50</v>
+      </c>
+      <c r="D28" s="38">
+        <v>4.75</v>
+      </c>
+      <c r="E28" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C29">
+        <v>50</v>
+      </c>
+      <c r="D29" s="38">
+        <v>5.55</v>
+      </c>
+      <c r="E29" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C30">
+        <v>50</v>
+      </c>
+      <c r="D30" s="38">
+        <v>7.75</v>
+      </c>
+      <c r="E30" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C31">
+        <v>50</v>
+      </c>
+      <c r="D31" s="38">
+        <v>6.13</v>
+      </c>
+      <c r="E31" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C32">
+        <v>50</v>
+      </c>
+      <c r="D32" s="38">
+        <v>6.89</v>
+      </c>
+      <c r="E32" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C33">
+        <v>50</v>
+      </c>
+      <c r="D33" s="38">
+        <v>7.35</v>
+      </c>
+      <c r="E33" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="B34" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34">
+        <v>10</v>
+      </c>
+      <c r="D34" s="38">
+        <v>3.98</v>
+      </c>
+      <c r="E34" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="B35" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35" s="38">
+        <v>28.37</v>
+      </c>
+      <c r="E35" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="B36" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C36">
+        <v>4</v>
+      </c>
+      <c r="D36" s="38">
+        <v>26.4</v>
+      </c>
+      <c r="E36" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="B37" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37" s="38">
+        <v>6.64</v>
+      </c>
+      <c r="E37" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="B38" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38" s="38">
+        <v>2.54</v>
+      </c>
+      <c r="E38" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="B39" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39" s="38">
+        <v>16.09</v>
+      </c>
+      <c r="E39" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="B40" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40" s="38">
+        <v>6.05</v>
+      </c>
+      <c r="E40" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="B41" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41" s="38">
+        <v>10.41</v>
+      </c>
+      <c r="E41" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="B42" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42" s="38">
+        <v>4</v>
+      </c>
+      <c r="E42" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="B43" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C43">
+        <v>10</v>
+      </c>
+      <c r="D43" s="38">
+        <v>7.92</v>
+      </c>
+      <c r="E43" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="B44" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C44">
+        <v>10</v>
+      </c>
+      <c r="D44" s="38">
+        <v>4.2</v>
+      </c>
+      <c r="E44" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="B45" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C45">
+        <v>10</v>
+      </c>
+      <c r="D45" s="38">
+        <v>8.77</v>
+      </c>
+      <c r="E45" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="B46" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C46">
+        <v>10</v>
+      </c>
+      <c r="D46" s="38">
+        <v>8.77</v>
+      </c>
+      <c r="E46" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="B47" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C47">
+        <v>2</v>
+      </c>
+      <c r="D47" s="38">
+        <v>3.58</v>
+      </c>
+      <c r="E47" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="B48" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48" s="38">
+        <v>19.64</v>
+      </c>
+      <c r="E48" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5">
+      <c r="B49" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49" s="38">
+        <v>3.05</v>
+      </c>
+      <c r="E49" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5">
+      <c r="B50" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C50">
+        <v>4</v>
+      </c>
+      <c r="D50" s="38">
+        <v>20.329999999999998</v>
+      </c>
+      <c r="E50" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5">
+      <c r="B51" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C51">
+        <v>8</v>
+      </c>
+      <c r="D51" s="38">
+        <v>5.6</v>
+      </c>
+      <c r="E51" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5">
+      <c r="B52" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52" s="38">
+        <v>8.7799999999999994</v>
+      </c>
+      <c r="E52" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5">
+      <c r="B53" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53" s="38">
+        <v>19.77</v>
+      </c>
+      <c r="E53" t="s">
+        <v>175</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D12" xr:uid="{269568CE-4F20-9241-9564-25609FE5FE55}"/>
+  <autoFilter ref="A2:E33" xr:uid="{015907B5-3DCF-4845-96DF-693DC1433BE2}"/>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" xr:uid="{72CC3FB5-E930-C24E-9956-14F2C20D2E5C}"/>
-    <hyperlink ref="B7" r:id="rId2" xr:uid="{D26EA528-76E7-E248-9B68-B6A045043FAE}"/>
-    <hyperlink ref="B8" r:id="rId3" xr:uid="{90E5B7D3-0DE0-674B-8846-8DD018CC0B96}"/>
-    <hyperlink ref="B9" r:id="rId4" xr:uid="{1FE5D950-96BE-C44B-B322-CE5DE720FDB3}"/>
-    <hyperlink ref="B11" r:id="rId5" xr:uid="{DE31638A-FD70-554C-B5EC-D5F836D91588}"/>
-    <hyperlink ref="B10" r:id="rId6" xr:uid="{631831AF-9B91-874B-9A18-32A420E1BEDC}"/>
-    <hyperlink ref="B12" r:id="rId7" xr:uid="{EFC87850-E60D-7C4A-AA1C-0DD5D2D5DF3B}"/>
-    <hyperlink ref="B13" r:id="rId8" xr:uid="{5BB96CFA-3761-064D-A3A7-93EE4F27FCB2}"/>
-    <hyperlink ref="B14" r:id="rId9" xr:uid="{ACDA9D6D-5AE5-3549-AC8F-C33F354FF178}"/>
+    <hyperlink ref="B7" r:id="rId1" xr:uid="{72CC3FB5-E930-C24E-9956-14F2C20D2E5C}"/>
+    <hyperlink ref="B8" r:id="rId2" xr:uid="{D26EA528-76E7-E248-9B68-B6A045043FAE}"/>
+    <hyperlink ref="B9" r:id="rId3" xr:uid="{90E5B7D3-0DE0-674B-8846-8DD018CC0B96}"/>
+    <hyperlink ref="B10" r:id="rId4" xr:uid="{1FE5D950-96BE-C44B-B322-CE5DE720FDB3}"/>
+    <hyperlink ref="B12" r:id="rId5" xr:uid="{DE31638A-FD70-554C-B5EC-D5F836D91588}"/>
+    <hyperlink ref="B11" r:id="rId6" xr:uid="{631831AF-9B91-874B-9A18-32A420E1BEDC}"/>
+    <hyperlink ref="B13" r:id="rId7" xr:uid="{EFC87850-E60D-7C4A-AA1C-0DD5D2D5DF3B}"/>
+    <hyperlink ref="B14" r:id="rId8" xr:uid="{5BB96CFA-3761-064D-A3A7-93EE4F27FCB2}"/>
+    <hyperlink ref="B15" r:id="rId9" xr:uid="{ACDA9D6D-5AE5-3549-AC8F-C33F354FF178}"/>
+    <hyperlink ref="B16" r:id="rId10" xr:uid="{E99430DB-B447-7647-81AF-B063F5A2CB3D}"/>
+    <hyperlink ref="B17" r:id="rId11" xr:uid="{7F635337-C749-4943-80B3-D283A9D0EE42}"/>
+    <hyperlink ref="B18" r:id="rId12" xr:uid="{CC3C98FF-2A2E-C840-B042-E20B5DA6F978}"/>
+    <hyperlink ref="B19" r:id="rId13" xr:uid="{B82189F6-FFCA-B94F-9527-FF8C777F4ECB}"/>
+    <hyperlink ref="B20" r:id="rId14" xr:uid="{1E171215-65D4-D043-A19F-F8C2DBAF1568}"/>
+    <hyperlink ref="B21" r:id="rId15" xr:uid="{78F06E01-28A2-1A44-9B74-4F71C39E9AF2}"/>
+    <hyperlink ref="B22" r:id="rId16" xr:uid="{1939E759-2136-5642-8763-7660400E52A7}"/>
+    <hyperlink ref="B23" r:id="rId17" xr:uid="{75B983B6-3764-B941-8EDC-EF5FD0781883}"/>
+    <hyperlink ref="B24" r:id="rId18" xr:uid="{424E2DE6-3433-A149-863E-4D1D544542B6}"/>
+    <hyperlink ref="B25" r:id="rId19" xr:uid="{01C30420-B6DC-AC46-AEE9-3B0DB56753FD}"/>
+    <hyperlink ref="B26" r:id="rId20" xr:uid="{E67B9EE1-20F1-4349-AB52-21FC21421727}"/>
+    <hyperlink ref="B27" r:id="rId21" xr:uid="{F7EA1B05-1322-774A-BCF5-4CEE784E8FEA}"/>
+    <hyperlink ref="B28" r:id="rId22" xr:uid="{39945335-6576-0E46-97C9-828A45EF850A}"/>
+    <hyperlink ref="B29" r:id="rId23" xr:uid="{B0C2B2FB-CA7D-6B4D-8618-5011AFFA25FD}"/>
+    <hyperlink ref="B30" r:id="rId24" xr:uid="{113108F9-6446-DE4B-AEB7-18C085FB94E5}"/>
+    <hyperlink ref="B31" r:id="rId25" xr:uid="{F0588C95-4947-3248-98A7-DA76A2B69387}"/>
+    <hyperlink ref="B32" r:id="rId26" xr:uid="{74DFFCDB-8C1F-0345-8693-C4B3379A6070}"/>
+    <hyperlink ref="B33" r:id="rId27" xr:uid="{6F4B9DE8-D83E-6F4C-86DE-D092FE0B226A}"/>
+    <hyperlink ref="B34" r:id="rId28" xr:uid="{37CA1620-1861-504C-A245-00DD8A4FE6B8}"/>
+    <hyperlink ref="B35" r:id="rId29" display="350*400 Silicone Heatpad" xr:uid="{B80E0FE0-9D09-514F-BF11-2C5F6C965F27}"/>
+    <hyperlink ref="B36" r:id="rId30" display="Nema 17 Stepper Motor" xr:uid="{93B62A8A-BC30-0449-A38D-2F4FD359173B}"/>
+    <hyperlink ref="B37" r:id="rId31" xr:uid="{49F7C167-8D27-E148-8989-10A133ABB6C0}"/>
+    <hyperlink ref="B38" r:id="rId32" xr:uid="{8939A7D1-327B-1142-83EC-BBCC341C5566}"/>
+    <hyperlink ref="B39" r:id="rId33" display="24V Power Supply" xr:uid="{BCC360FA-C70E-514C-A68A-959577537A54}"/>
+    <hyperlink ref="B40" r:id="rId34" xr:uid="{D18E30DF-DA28-8245-816D-2F521D3187B6}"/>
+    <hyperlink ref="B41" r:id="rId35" display="BL Touch Probe" xr:uid="{B9BE6CFF-7122-054E-8845-7480287F5D9F}"/>
+    <hyperlink ref="B42" r:id="rId36" display="J-Head/E3d Hotend" xr:uid="{9FD3930F-7034-944A-AF85-8D98FF314043}"/>
+    <hyperlink ref="B43" r:id="rId37" xr:uid="{423DA7A4-5A52-1D4C-BF4F-A03E153DE907}"/>
+    <hyperlink ref="B44" r:id="rId38" xr:uid="{CF8137B6-7625-DC40-8C8F-8F585119141D}"/>
+    <hyperlink ref="B45" r:id="rId39" display="GT2 Idler Pulley 20NT" xr:uid="{8ADFF8A4-FCB9-4E47-80AC-F38009659A17}"/>
+    <hyperlink ref="B46" r:id="rId40" xr:uid="{CB9D7997-02F6-F34E-B590-F2961BBCCDF9}"/>
+    <hyperlink ref="B47" r:id="rId41" display="12V Layer Fan" xr:uid="{A6486C8B-D26C-B546-9FEC-479A3571BB61}"/>
+    <hyperlink ref="B48" r:id="rId42" display="Filament Extruder" xr:uid="{599DBCAE-17C7-B64E-A24A-9C332DB2026C}"/>
+    <hyperlink ref="B49" r:id="rId43" xr:uid="{10F99CAA-10E7-D747-81BB-232D467EC0DA}"/>
+    <hyperlink ref="B50" r:id="rId44" xr:uid="{6EC03EFA-3C6D-F947-B6C1-6A4866E8A3E1}"/>
+    <hyperlink ref="B51" r:id="rId45" xr:uid="{0526A0D0-A7C5-4040-8553-A9CCC1101C2E}"/>
+    <hyperlink ref="B52" r:id="rId46" display="LCD - 12864 Controller" xr:uid="{223707D8-8A34-8C4E-9178-89B1518C3095}"/>
+    <hyperlink ref="B53" r:id="rId47" display="MKS Gen L V1.0" xr:uid="{4D7F62D6-DF14-CE40-B6B6-34135BE5D49D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2862,7 +3594,7 @@
   <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="E21" sqref="A21:E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -2906,271 +3638,271 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="43">
+      <c r="C8" s="40">
         <v>25</v>
       </c>
-      <c r="D8" s="44">
+      <c r="D8" s="41">
         <v>0.1</v>
       </c>
-      <c r="E8" s="45">
+      <c r="E8" s="42">
         <f t="shared" ref="E8:E31" si="0">D8*C8</f>
         <v>2.5</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="42" t="s">
+      <c r="A9" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="46">
+      <c r="C9" s="43">
         <v>25</v>
       </c>
-      <c r="D9" s="44">
+      <c r="D9" s="41">
         <v>0.1</v>
       </c>
-      <c r="E9" s="45">
+      <c r="E9" s="42">
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="42" t="s">
+      <c r="A10" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="43">
+      <c r="C10" s="40">
         <v>25</v>
       </c>
-      <c r="D10" s="44">
+      <c r="D10" s="41">
         <v>0.1</v>
       </c>
-      <c r="E10" s="45">
+      <c r="E10" s="42">
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="42" t="s">
+      <c r="A11" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="46">
+      <c r="C11" s="43">
         <v>10</v>
       </c>
-      <c r="D11" s="44">
+      <c r="D11" s="41">
         <v>0.1</v>
       </c>
-      <c r="E11" s="45">
+      <c r="E11" s="42">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="40">
         <v>25</v>
       </c>
-      <c r="D12" s="28">
+      <c r="D12" s="41">
         <v>0.1</v>
       </c>
-      <c r="E12" s="27">
+      <c r="E12" s="42">
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="43">
         <v>10</v>
       </c>
-      <c r="D13" s="28">
+      <c r="D13" s="41">
         <v>0.1</v>
       </c>
-      <c r="E13" s="27">
+      <c r="E13" s="42">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="40" t="s">
         <v>109</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="43">
         <v>10</v>
       </c>
-      <c r="D14" s="28">
+      <c r="D14" s="41">
         <v>0.1</v>
       </c>
-      <c r="E14" s="27">
+      <c r="E14" s="42">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="40">
         <v>10</v>
       </c>
-      <c r="D15" s="28">
+      <c r="D15" s="41">
         <v>0.1</v>
       </c>
-      <c r="E15" s="27">
+      <c r="E15" s="42">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="43">
         <v>10</v>
       </c>
-      <c r="D16" s="28">
+      <c r="D16" s="41">
         <v>0.1</v>
       </c>
-      <c r="E16" s="27">
+      <c r="E16" s="42">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="40">
         <v>10</v>
       </c>
-      <c r="D17" s="28">
+      <c r="D17" s="41">
         <v>0.1</v>
       </c>
-      <c r="E17" s="27">
+      <c r="E17" s="42">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="43">
         <v>25</v>
       </c>
-      <c r="D18" s="28">
+      <c r="D18" s="41">
         <v>0.1</v>
       </c>
-      <c r="E18" s="27">
+      <c r="E18" s="42">
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="39" t="s">
         <v>111</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C19" s="40">
         <v>20</v>
       </c>
-      <c r="D19" s="28">
+      <c r="D19" s="41">
         <v>0.1</v>
       </c>
-      <c r="E19" s="27">
+      <c r="E19" s="42">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20" s="43">
         <v>40</v>
       </c>
-      <c r="D20" s="28">
+      <c r="D20" s="41">
         <v>0.1</v>
       </c>
-      <c r="E20" s="27">
+      <c r="E20" s="42">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="29" t="s">
+      <c r="A21" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="27" t="s">
+      <c r="B21" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C21" s="40">
         <v>50</v>
       </c>
-      <c r="D21" s="28">
+      <c r="D21" s="41">
         <v>0.1</v>
       </c>
-      <c r="E21" s="27">
+      <c r="E21" s="42">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="29" t="s">
+      <c r="A22" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="27" t="s">
+      <c r="B22" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="11">
+      <c r="C22" s="40">
         <v>100</v>
       </c>
-      <c r="D22" s="28">
+      <c r="D22" s="41">
         <v>0.1</v>
       </c>
-      <c r="E22" s="27">
+      <c r="E22" s="42">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>

--- a/Bill Of Materials/V-King CoreXY - Part Order List.xlsx
+++ b/Bill Of Materials/V-King CoreXY - Part Order List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinroger/Documents/GitHub/V-King/Bill Of Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B87E9185-FBA7-7E41-9DE4-1A71971F045E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65156E1E-A19F-224B-9597-2D01A00F600D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40000" yWindow="460" windowWidth="28800" windowHeight="25260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4800" yWindow="460" windowWidth="28800" windowHeight="20540" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM Overview" sheetId="7" r:id="rId1"/>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="178">
   <si>
     <t>Part Name</t>
   </si>
@@ -609,6 +609,12 @@
   </si>
   <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t>Missing M3x12</t>
+  </si>
+  <si>
+    <t>Missing M4x25 hex</t>
   </si>
 </sst>
 </file>
@@ -860,6 +866,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -869,7 +876,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -1720,44 +1726,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="46" t="s">
         <v>133</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="46"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
+      <c r="A3" s="47"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="6"/>
@@ -1853,7 +1859,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0919D6B9-0972-4CD2-93D2-3239C5F0D359}">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -3591,10 +3597,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A389EA4-5A5F-4A9C-B048-2EB9BC969CA3}">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="A21:E22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -3872,7 +3878,7 @@
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="47" t="s">
+      <c r="A21" s="44" t="s">
         <v>31</v>
       </c>
       <c r="B21" s="42" t="s">
@@ -3890,7 +3896,7 @@
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="47" t="s">
+      <c r="A22" s="44" t="s">
         <v>4</v>
       </c>
       <c r="B22" s="42" t="s">
@@ -4093,6 +4099,16 @@
       </c>
       <c r="E34" s="15" t="s">
         <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>
